--- a/SeaIce Bill of Materials Example.xlsx
+++ b/SeaIce Bill of Materials Example.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\don.chen\Documents\Obsidian Vault\Cisco-CLI-Commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911BC5DC-0AAA-490A-92AD-F4C7CAD80C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E3C3C-E2D5-4D83-B738-66D1310C6C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FINANCE CHARGE" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="FINANCE CHARGE" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">Data[[#Headers],[DESCRIPTION]]</definedName>
@@ -21,7 +22,7 @@
     <definedName name="ColumnTitleRegion2..E12.1">'FINANCE CHARGE'!$D$7</definedName>
     <definedName name="ColumnTitleRegion3..D14">'FINANCE CHARGE'!$B$13</definedName>
     <definedName name="Company_Name">'FINANCE CHARGE'!$B$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'FINANCE CHARGE'!$15:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'FINANCE CHARGE'!$15:$15</definedName>
     <definedName name="RowTitleRegion1..E5">'FINANCE CHARGE'!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,23 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -143,64 +133,61 @@
     <t>don.chen@astontech.com</t>
   </si>
   <si>
-    <t>Cisco Nexus C93180YC-FX3</t>
-  </si>
-  <si>
-    <t>Cisco Power Supply 650W</t>
-  </si>
-  <si>
-    <t>Cisco Catalyst 9200</t>
-  </si>
-  <si>
-    <t>Cisco Power Supply 600W</t>
-  </si>
-  <si>
-    <t>Cisco Catalyst 9200 POE</t>
-  </si>
-  <si>
-    <t>Cisco Power Supply 125W</t>
-  </si>
-  <si>
-    <t>Cisco SFP+ Transceivers</t>
-  </si>
-  <si>
-    <t>Palo Alto SFP+ Tranceivers</t>
-  </si>
-  <si>
-    <t>Cisco Network Stacking Module</t>
-  </si>
-  <si>
-    <t>Cat6 Patch Cable 3ft</t>
-  </si>
-  <si>
-    <t>Fiber LC-ST Patch Cable</t>
-  </si>
-  <si>
-    <t>Giber LC-LC Patch Cable</t>
-  </si>
-  <si>
-    <t>Cisco Fan Type 2</t>
-  </si>
-  <si>
-    <t>Cisco Catalyst 9105AXI</t>
-  </si>
-  <si>
-    <t>Cisco Catalyst 9105AXI EWC</t>
-  </si>
-  <si>
-    <t>Palo Alto 460</t>
-  </si>
-  <si>
-    <t>Palo Alto Threat Prevention License 3 Years</t>
-  </si>
-  <si>
     <t>Palo Alto URL Filtering License 3 Years</t>
   </si>
   <si>
-    <t>Cisco DNA Essentials 3 Years</t>
-  </si>
-  <si>
-    <t>Cisco NX-OS Essentials 10G+ Perpetual</t>
+    <t>WLC: C9800-L-C-K9</t>
+  </si>
+  <si>
+    <t>AP: C9105AXI-B</t>
+  </si>
+  <si>
+    <t>Access Switch: C9200-48PL-E</t>
+  </si>
+  <si>
+    <t>Access Switch Power Supply: PWR-C6-600WAC</t>
+  </si>
+  <si>
+    <t>Nexus Switch: C93180YC-FX3</t>
+  </si>
+  <si>
+    <t>Nexus Switch Power Supply: NXA-PAC-650W-PI</t>
+  </si>
+  <si>
+    <t>Nexus Switch License: NXOS-ES-XF</t>
+  </si>
+  <si>
+    <t>Cisco Stacking Kit: C9200-STACK-KIT</t>
+  </si>
+  <si>
+    <t>Backup Switch Fan: FAN-T2</t>
+  </si>
+  <si>
+    <t>ST to LC Fiber: N457-001-62</t>
+  </si>
+  <si>
+    <t>LC to LC Fiber: N320-03M</t>
+  </si>
+  <si>
+    <t>UPS: SMX1500RMI2U</t>
+  </si>
+  <si>
+    <t>Cisco SFP+ Transceivers: SFP-10G-SR-S</t>
+  </si>
+  <si>
+    <t>Palo Alto SFP+ Tranceivers: PAN-SFP-PLUS-SR-AX</t>
+  </si>
+  <si>
+    <t>Edge Firewall: PA-460</t>
+  </si>
+  <si>
+    <t>Redundant FSP: PA-820</t>
+  </si>
+  <si>
+    <t>Cat 6 Patch Cable 3ft</t>
+  </si>
+  <si>
+    <t>Bulk Cat 6 1000 ft</t>
   </si>
 </sst>
 </file>
@@ -214,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -310,12 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Century Gothic"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF3E332D"/>
       <name val="Verdana"/>
@@ -494,9 +475,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
@@ -506,13 +484,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
@@ -527,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -734,7 +715,810 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="395004304"/>
+        <c:axId val="395008624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="395004304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395008624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395008624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395004304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1F89923-6B44-42AE-B5E0-ADD94A61470A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665308" cy="6291385"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F5D454-F3E5-9943-3CCA-002DD20B7E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1042,27 +1826,27 @@
   </sheetPr>
   <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="2" max="2" width="55.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -1072,7 +1856,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1879,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1114,17 +1898,17 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1172,27 +1956,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1206,322 +1990,322 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="25">
-        <v>12</v>
-      </c>
-      <c r="D16" s="25">
-        <v>567.65</v>
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>13290.99</v>
       </c>
       <c r="E16" s="9">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>6811.7999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="25">
+        <v>26581.98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="25">
-        <v>13290.99</v>
+      <c r="D17" s="24">
+        <v>468.99</v>
       </c>
       <c r="E17" s="9">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>26581.98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25">
+        <v>937.98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="D18" s="25">
-        <v>468.99</v>
+      <c r="D18" s="24">
+        <v>12269.99</v>
       </c>
       <c r="E18" s="9">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>937.98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="25">
-        <v>2</v>
-      </c>
-      <c r="D19" s="25">
-        <v>12269.99</v>
+        <v>24539.98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24">
+        <v>14</v>
+      </c>
+      <c r="D19" s="24">
+        <v>3534.99</v>
       </c>
       <c r="E19" s="9">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>24539.98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+        <v>49489.86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25">
-        <v>4</v>
-      </c>
-      <c r="D20" s="25">
-        <v>3534.99</v>
+      <c r="C20" s="24">
+        <v>14</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1234.99</v>
       </c>
       <c r="E20" s="9">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>14139.96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="25">
-        <v>4</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1234.99</v>
-      </c>
-      <c r="E21" s="9">
+        <v>17289.86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="24">
+        <v>10</v>
+      </c>
+      <c r="D21" s="24">
+        <v>369.99</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" ref="E21:E26" si="0">C21*D21</f>
+        <v>3699.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24">
+        <v>6668.99</v>
+      </c>
+      <c r="E22" s="20">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>4939.96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="25">
-        <v>10</v>
-      </c>
-      <c r="D22" s="25">
-        <v>3333.99</v>
-      </c>
-      <c r="E22" s="9">
-        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>33339.899999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="25">
-        <v>10</v>
-      </c>
-      <c r="D23" s="25">
-        <v>755.99</v>
-      </c>
-      <c r="E23" s="9">
-        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>7559.9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+        <v>13337.98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="25">
-        <v>10</v>
-      </c>
-      <c r="D24" s="25">
-        <v>369.99</v>
-      </c>
-      <c r="E24" s="19">
-        <f t="shared" ref="E24:E29" si="0">C24*D24</f>
-        <v>3699.9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="25">
-        <v>595.99</v>
-      </c>
-      <c r="E25" s="20">
-        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>1191.98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="25">
+      <c r="C23" s="24">
         <v>55</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D23" s="24">
         <v>371.99</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>20459.45</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="25">
-        <v>4</v>
-      </c>
-      <c r="D27" s="25">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="24">
         <v>178.99</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>715.96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+        <v>1073.94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C25" s="24">
         <v>10</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D25" s="24">
         <v>939.99</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>9399.9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="25">
+    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="24">
         <v>600</v>
       </c>
-      <c r="D29" s="25">
-        <v>3.99</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="D26" s="24">
+        <v>4.99</v>
+      </c>
+      <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>297.99</v>
+      </c>
+      <c r="E27" s="21">
+        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
+        <v>297.99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="24">
+        <v>40</v>
+      </c>
+      <c r="D28" s="24">
+        <v>35.99</v>
+      </c>
+      <c r="E28" s="21">
+        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
+        <v>1439.6000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="25">
-        <v>15</v>
-      </c>
-      <c r="D30" s="25">
-        <v>18.989999999999998</v>
+      <c r="C29" s="24">
+        <v>28</v>
+      </c>
+      <c r="D29" s="24">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E29" s="21">
+        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
+        <v>503.71999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2</v>
+      </c>
+      <c r="D30" s="24">
+        <v>5548.99</v>
       </c>
       <c r="E30" s="22">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>284.84999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="25">
-        <v>60</v>
-      </c>
-      <c r="D31" s="25">
-        <v>16.989999999999998</v>
+        <v>11097.98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2</v>
+      </c>
+      <c r="D31" s="24">
+        <v>3860</v>
       </c>
       <c r="E31" s="22">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>1019.3999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="25">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="24">
         <v>2</v>
       </c>
-      <c r="D32" s="25">
-        <v>5025</v>
-      </c>
-      <c r="E32" s="23">
-        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="25">
-        <v>2</v>
-      </c>
-      <c r="D33" s="25">
-        <v>3860</v>
-      </c>
-      <c r="E33" s="23">
-        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
-        <v>7720</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="25">
-        <v>2</v>
-      </c>
-      <c r="D34" s="25">
+      <c r="D32" s="24">
         <v>2575</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E32" s="22">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
         <v>5150</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="25">
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="24">
         <v>5</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D33" s="24">
         <v>258.99</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E33" s="22">
         <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
         <v>1294.95</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24">
+        <v>5827.99</v>
+      </c>
+      <c r="E34" s="22">
+        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
+        <v>5827.99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="24">
+        <v>12</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1505.99</v>
+      </c>
+      <c r="E35" s="22">
+        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
+        <v>18071.88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="26"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="24">
+      <c r="D39" s="25"/>
+      <c r="E39" s="23">
         <v>22709.99</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15" t="s">
@@ -1529,25 +2313,25 @@
       </c>
       <c r="E40" s="16">
         <f>SUBTOTAL(109,Data[TOTAL])+ E39</f>
-        <v>204941.84</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="str">
+        <v>243918.93000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="str">
         <f>"Make all checks payable to "&amp;Company_Name&amp;"."</f>
         <v>Make all checks payable to Aston Technologies Inc. .</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="28" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1602,24 +2386,59 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{66E72AAC-09D8-4FE1-BCC6-56B899BA3D9A}"/>
     <hyperlink ref="B11" r:id="rId2" display="sebastian.carrizosa@astontech.com" xr:uid="{D3D6E816-B1EB-46F1-8C62-38AD31BDA033}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{176AD39E-309F-4D52-A1B1-742369D92C93}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{40C55B2E-418B-4032-97A3-EF47783B5243}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{8E1F5FD4-BAE4-417B-A880-5F019EFDC9A4}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{8E426A26-979C-4DB8-AC33-7855E85DDFEE}"/>
+    <hyperlink ref="B20" r:id="rId7" xr:uid="{322E07FD-43FC-4366-B776-8AB2201F381D}"/>
+    <hyperlink ref="B21" r:id="rId8" xr:uid="{AD1722FF-86EC-4820-AF16-CB442CD1FA66}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{375788E7-9B79-4E0A-9FCA-F118725D4BCC}"/>
+    <hyperlink ref="B23" r:id="rId10" xr:uid="{639B2BE7-E26B-4B63-9092-2E4826437BC1}"/>
+    <hyperlink ref="B24" r:id="rId11" location="tab-specifications" xr:uid="{7A8E98BB-E27E-426B-B8FA-369E2E4A10F6}"/>
+    <hyperlink ref="B25" r:id="rId12" xr:uid="{4622D4DD-B5C3-43E4-9708-E6C84106E4D5}"/>
+    <hyperlink ref="B26" r:id="rId13" display="Cat6 Patch Cable 3ft" xr:uid="{D3776E4F-E6C7-4702-9D39-A62B1CCE43A8}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{583B53F1-9373-4ADD-91FB-CD7CCA7E6750}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{D4AF06D1-0AD3-41CC-A0B1-B18D8CB1A954}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{7E68B4DA-7E0F-4FBE-9306-F602FFD526C8}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{D9EC6AFE-63FF-42B8-91E0-56CC295ECE0C}"/>
+    <hyperlink ref="B33" r:id="rId18" xr:uid="{4913AEEE-7A43-4843-B841-F0E80E253F8B}"/>
+    <hyperlink ref="B34" r:id="rId19" xr:uid="{F8DF3FBB-913D-4651-95B0-AA4DB4CC61EA}"/>
+    <hyperlink ref="B35" r:id="rId20" xr:uid="{1D1FF128-C420-4463-80D0-53C57249E346}"/>
+    <hyperlink ref="B31" r:id="rId21" xr:uid="{9B33CC60-CBA1-48F1-B4D6-FE0C6D16BB7B}"/>
+    <hyperlink ref="B32" r:id="rId22" xr:uid="{23F40ECE-DC1F-494A-AC70-0E1C93FB64E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup scale="85" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId23"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E17:E18 E20" emptyCellReference="1"/>
+    <ignoredError sqref="E16:E17 E19" emptyCellReference="1"/>
   </ignoredErrors>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A522C4A5FAEDA43A44AEDF42C29ACD7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbe234fd2a05b68d0e7507781e0fc6be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a3f9a8a-7d0b-4e30-aa38-1b483f78425e" xmlns:ns3="46e2aa76-6e4d-4ad5-a00d-f83cb845b94b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24b9f29b09aec550eddeed7e719d21bd" ns2:_="" ns3:_="">
     <xsd:import namespace="7a3f9a8a-7d0b-4e30-aa38-1b483f78425e"/>
@@ -1796,22 +2615,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACAF4A7-79DF-4DF2-98E9-4588DA2CFA37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2480DC27-6CFE-4BCB-AE4D-BFAF86CA2ADC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ED1F3FC-D980-45DE-B4DA-285A5D8C44F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1828,21 +2649,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2480DC27-6CFE-4BCB-AE4D-BFAF86CA2ADC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACAF4A7-79DF-4DF2-98E9-4588DA2CFA37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SeaIce Bill of Materials Example.xlsx
+++ b/SeaIce Bill of Materials Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\don.chen\Documents\Obsidian Vault\Cisco-CLI-Commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E3C3C-E2D5-4D83-B738-66D1310C6C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A27BF-5784-4A24-B416-B21538369EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Bulk Cat 6 1000 ft</t>
+  </si>
+  <si>
+    <t>Shipping</t>
   </si>
 </sst>
 </file>
@@ -493,6 +496,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -505,9 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -542,10 +545,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -556,12 +555,17 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <name val="Century Gothic"/>
+        <sz val="10"/>
+        <color rgb="FF3E332D"/>
+        <name val="Verdana"/>
         <family val="2"/>
-        <scheme val="major"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -593,13 +597,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF3E332D"/>
-        <name val="Verdana"/>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="major"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1574,12 +1577,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Data" displayName="Data" ref="B15:E36" totalsRowCount="1" totalsRowDxfId="7" totalsRowCellStyle="Currency">
-  <autoFilter ref="B15:E35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Data" displayName="Data" ref="B15:E37" totalsRowCount="1" totalsRowDxfId="7" totalsRowCellStyle="Currency">
+  <autoFilter ref="B15:E36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DESCRIPTION" dataDxfId="6" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="QUANTITY" dataDxfId="5" totalsRowDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AMOUNT" dataDxfId="4" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DESCRIPTION" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="QUANTITY" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AMOUNT" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOTAL" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</calculatedColumnFormula>
     </tableColumn>
@@ -1824,10 +1827,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E42"/>
+  <dimension ref="B1:E43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1843,10 +1846,10 @@
     <row r="1" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -1876,7 +1879,7 @@
       </c>
       <c r="E4" s="6">
         <f ca="1">TODAY()</f>
-        <v>45831</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -1903,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
@@ -1957,24 +1960,24 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -2081,7 +2084,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="24">
@@ -2291,52 +2294,67 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="26"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="1" t="s">
+      <c r="B36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>421.81</v>
+      </c>
+      <c r="E36" s="22">
+        <f>Data[[#This Row],[QUANTITY]]*Data[[#This Row],[AMOUNT]]</f>
+        <v>421.81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="26"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="23">
-        <v>22709.99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="23">
+        <v>19079.27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="16">
-        <f>SUBTOTAL(109,Data[TOTAL])+ E39</f>
-        <v>243918.93000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="27" t="str">
+      <c r="E41" s="16">
+        <f>SUBTOTAL(109,Data[TOTAL])+ E40</f>
+        <v>240710.02000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="28" t="str">
         <f>"Make all checks payable to "&amp;Company_Name&amp;"."</f>
         <v>Make all checks payable to Aston Technologies Inc. .</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="27" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B41:E41"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D13:E13"/>
@@ -2375,7 +2393,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="C15" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading" sqref="D15" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Total amount is automatically calculated in this column under this heading. The last cell of the table contains the Total Due amount" sqref="E15" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B41:E41" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B42:E42" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Number in cell at right" sqref="D3" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Number in this cell" sqref="E3" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice Date in cell at right" sqref="D4" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
